--- a/Test Cases/Positive Test Cases/Shopping Cart Test Suite.xlsx
+++ b/Test Cases/Positive Test Cases/Shopping Cart Test Suite.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="58">
   <si>
     <t>Iteration 1</t>
   </si>
@@ -164,6 +164,30 @@
   </si>
   <si>
     <t>Products are removed like in the 1st iteration</t>
+  </si>
+  <si>
+    <t>Test Case № 6</t>
+  </si>
+  <si>
+    <t>Make sure shopping cart is displayed at the middle of the page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steps to reproduce : </t>
+  </si>
+  <si>
+    <t>1. Navigate to a page containing add to cart button</t>
+  </si>
+  <si>
+    <t>2. Add some products to the shopping cart</t>
+  </si>
+  <si>
+    <t>Products are added to the shopping cart</t>
+  </si>
+  <si>
+    <t>3. Make sure the shopping cart stays at the middle of the page and products add proper</t>
+  </si>
+  <si>
+    <t>Shopping cart is possitioned at the middle of the page</t>
   </si>
 </sst>
 </file>
@@ -505,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,6 +1014,49 @@
         <v>40</v>
       </c>
     </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>50</v>
+      </c>
+      <c r="B74" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>52</v>
+      </c>
+      <c r="B76" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test Cases/Positive Test Cases/Shopping Cart Test Suite.xlsx
+++ b/Test Cases/Positive Test Cases/Shopping Cart Test Suite.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="89">
   <si>
     <t>Iteration 1</t>
   </si>
@@ -188,16 +188,124 @@
   </si>
   <si>
     <t>Shopping cart is possitioned at the middle of the page</t>
+  </si>
+  <si>
+    <t>Make sure Broughts from the site grid is updated</t>
+  </si>
+  <si>
+    <t>Test Case № 7</t>
+  </si>
+  <si>
+    <t>1. Log in with an existing user</t>
+  </si>
+  <si>
+    <t>2. Navigate to a page containing add to cart button</t>
+  </si>
+  <si>
+    <t>3. Add some products to the shopping cart</t>
+  </si>
+  <si>
+    <t>4. Checkout and buy the products</t>
+  </si>
+  <si>
+    <t>Successful purchase message appears</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Log out </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is logged out </t>
+  </si>
+  <si>
+    <t>6. Log in with admin profile</t>
+  </si>
+  <si>
+    <t>Admin home page appears</t>
+  </si>
+  <si>
+    <t>7. Go to Registered profiles page</t>
+  </si>
+  <si>
+    <t>Registered profiles page appears</t>
+  </si>
+  <si>
+    <t>8. Check for the user from #1 Broughts from the site number is updated</t>
+  </si>
+  <si>
+    <t>The grid is updated with the number of added products from #3</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Add Standart pack to the shopping cart</t>
+  </si>
+  <si>
+    <t>1. Navigate to the become a member page</t>
+  </si>
+  <si>
+    <t>Become a member page is displayed</t>
+  </si>
+  <si>
+    <t>2. Add Standart pack to the shopping cart</t>
+  </si>
+  <si>
+    <t>Standart pack is added to the shopping cart</t>
+  </si>
+  <si>
+    <t>3. Press checkout with PayPal button</t>
+  </si>
+  <si>
+    <t>You are redirected to PayPal with the chosen pack in the cart</t>
+  </si>
+  <si>
+    <t>Add Premium pack to the shopping cart</t>
+  </si>
+  <si>
+    <t>2. Add Premium pack to the shopping cart</t>
+  </si>
+  <si>
+    <t>Premium pack is added to the shopping cart</t>
+  </si>
+  <si>
+    <t>Add Pro pack to the shopping cart</t>
+  </si>
+  <si>
+    <t>Iteration 3</t>
+  </si>
+  <si>
+    <t>2. Add Pro pack to the shopping cart</t>
+  </si>
+  <si>
+    <t>Pro pack is added to the shopping cart</t>
+  </si>
+  <si>
+    <t>Test Case № 8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -223,8 +331,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,6 +660,9 @@
       <c r="B1" t="s">
         <v>10</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -654,6 +767,9 @@
       <c r="B13" t="s">
         <v>9</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -673,6 +789,9 @@
       <c r="B17" t="s">
         <v>26</v>
       </c>
+      <c r="C17" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -733,6 +852,9 @@
       <c r="B26" t="s">
         <v>23</v>
       </c>
+      <c r="C26" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
@@ -752,6 +874,9 @@
       <c r="B30" t="s">
         <v>31</v>
       </c>
+      <c r="C30" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -812,6 +937,9 @@
       <c r="B39" t="s">
         <v>32</v>
       </c>
+      <c r="C39" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
@@ -831,6 +959,9 @@
       <c r="B43" t="s">
         <v>35</v>
       </c>
+      <c r="C43" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -902,6 +1033,9 @@
       <c r="B53" t="s">
         <v>35</v>
       </c>
+      <c r="C53" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
@@ -921,6 +1055,9 @@
       <c r="B57" t="s">
         <v>42</v>
       </c>
+      <c r="C57" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -1002,6 +1139,9 @@
       <c r="B69" t="s">
         <v>42</v>
       </c>
+      <c r="C69" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
@@ -1021,6 +1161,9 @@
       <c r="B74" t="s">
         <v>51</v>
       </c>
+      <c r="C74" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -1057,7 +1200,259 @@
         <v>57</v>
       </c>
     </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>59</v>
+      </c>
+      <c r="B82" t="s">
+        <v>58</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>52</v>
+      </c>
+      <c r="B84" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>69</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>71</v>
+      </c>
+      <c r="C91" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>88</v>
+      </c>
+      <c r="B95" t="s">
+        <v>74</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>52</v>
+      </c>
+      <c r="B97" t="s">
+        <v>75</v>
+      </c>
+      <c r="C97" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>77</v>
+      </c>
+      <c r="C98" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>79</v>
+      </c>
+      <c r="C99" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>88</v>
+      </c>
+      <c r="B103" t="s">
+        <v>81</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>52</v>
+      </c>
+      <c r="B105" t="s">
+        <v>75</v>
+      </c>
+      <c r="C105" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>82</v>
+      </c>
+      <c r="C106" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>79</v>
+      </c>
+      <c r="C107" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>88</v>
+      </c>
+      <c r="B111" t="s">
+        <v>84</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>52</v>
+      </c>
+      <c r="B113" t="s">
+        <v>75</v>
+      </c>
+      <c r="C113" t="s">
+        <v>3</v>
+      </c>
+      <c r="D113" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>86</v>
+      </c>
+      <c r="C114" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>79</v>
+      </c>
+      <c r="C115" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Cases/Positive Test Cases/Shopping Cart Test Suite.xlsx
+++ b/Test Cases/Positive Test Cases/Shopping Cart Test Suite.xlsx
@@ -311,12 +311,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -331,10 +337,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,7 +649,7 @@
   <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+      <selection activeCell="A111" sqref="A111:D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,15 +661,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -761,15 +769,16 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -783,15 +792,16 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -846,15 +856,16 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
@@ -868,15 +879,16 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -931,15 +943,16 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
@@ -953,15 +966,16 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -1027,15 +1041,16 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="D53" s="1"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
@@ -1049,15 +1064,16 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -1133,15 +1149,16 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="D69" s="1"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
@@ -1155,15 +1172,16 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="D74" s="1"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -1201,15 +1219,16 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="D82" s="1"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -1296,15 +1315,16 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="D95" s="1"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -1348,15 +1368,16 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="D103" s="1"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
@@ -1400,15 +1421,16 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="D111" s="1"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">

--- a/Test Cases/Positive Test Cases/Shopping Cart Test Suite.xlsx
+++ b/Test Cases/Positive Test Cases/Shopping Cart Test Suite.xlsx
@@ -649,7 +649,7 @@
   <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111:D111"/>
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
